--- a/biology/Médecine/Ganglion_supérieur_du_nerf_vague/Ganglion_supérieur_du_nerf_vague.xlsx
+++ b/biology/Médecine/Ganglion_supérieur_du_nerf_vague/Ganglion_supérieur_du_nerf_vague.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ganglion_sup%C3%A9rieur_du_nerf_vague</t>
+          <t>Ganglion_supérieur_du_nerf_vague</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ganglion supérieur du nerf vague (ou ganglion jugulaire ou ganglion supérieur du nerf pneumogastrique) est un ganglion sensitif du système nerveux périphérique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ganglion_sup%C3%A9rieur_du_nerf_vague</t>
+          <t>Ganglion_supérieur_du_nerf_vague</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est situé dans le foramen jugulaire au niveau de la sortie crânienne du nerf vague. Il est plus petit que le ganglion inférieur du nerf vague[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est situé dans le foramen jugulaire au niveau de la sortie crânienne du nerf vague. Il est plus petit que le ganglion inférieur du nerf vague,.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ganglion_sup%C3%A9rieur_du_nerf_vague</t>
+          <t>Ganglion_supérieur_du_nerf_vague</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les neurones du ganglion supérieur du nerf vague sont pseudo-unipolaires et assurent l'innervation sensorielle via les rameaux auriculaire et méningé du nerf vague. Les axones de ces neurones forment une synapse dans le noyau spinal du trijumeau du tronc cérébral[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les neurones du ganglion supérieur du nerf vague sont pseudo-unipolaires et assurent l'innervation sensorielle via les rameaux auriculaire et méningé du nerf vague. Les axones de ces neurones forment une synapse dans le noyau spinal du trijumeau du tronc cérébral.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ganglion_sup%C3%A9rieur_du_nerf_vague</t>
+          <t>Ganglion_supérieur_du_nerf_vague</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,10 +591,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rameau auriculaire du nerf vague
-Via le rameau auriculaire[3],[4], le ganglion supérieur innerve le pavillon de l'oreille[5], la face postéro-inférieure du conduit auditif externe et la face postéro-inférieure de la membrane tympanique.
-Rameau méningé du nerf vague
-Via le rameau méningé[6],[7], le ganglion supérieur innerve une partie de la dure-mère de la fosse crânienne postérieure.
+          <t>Rameau auriculaire du nerf vague</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Via le rameau auriculaire le ganglion supérieur innerve le pavillon de l'oreille, la face postéro-inférieure du conduit auditif externe et la face postéro-inférieure de la membrane tympanique.
 </t>
         </is>
       </c>
@@ -589,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ganglion_sup%C3%A9rieur_du_nerf_vague</t>
+          <t>Ganglion_supérieur_du_nerf_vague</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,12 +623,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Embryologie</t>
+          <t>Zone d'innervation</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les neurones du ganglion supérieur du nerf vague dérivent de la crête neurale[8].
+          <t>Rameau méningé du nerf vague</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Via le rameau méningé le ganglion supérieur innerve une partie de la dure-mère de la fosse crânienne postérieure.
 </t>
         </is>
       </c>
@@ -620,7 +645,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ganglion_sup%C3%A9rieur_du_nerf_vague</t>
+          <t>Ganglion_supérieur_du_nerf_vague</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,13 +660,51 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Embryologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les neurones du ganglion supérieur du nerf vague dérivent de la crête neurale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ganglion_supérieur_du_nerf_vague</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ganglion_sup%C3%A9rieur_du_nerf_vague</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Névralgie vagale
-Une douleur au niveau du conduit auditif externe ( otalgie ) peut dans de rares cas être due à une névralgie vagale causée par une compression vasculaire du nerf vague (souvent par l'artère cérébelleuse inféro-postérieure). Les neurones affectés sont ceux du ganglion supérieur rattachés à la branche auriculaire du nerf vague. Un traitement possible est une décompression microvasculaire du nerf vague à la sortie du tronc cérébral[4].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Névralgie vagale</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une douleur au niveau du conduit auditif externe ( otalgie ) peut dans de rares cas être due à une névralgie vagale causée par une compression vasculaire du nerf vague (souvent par l'artère cérébelleuse inféro-postérieure). Les neurones affectés sont ceux du ganglion supérieur rattachés à la branche auriculaire du nerf vague. Un traitement possible est une décompression microvasculaire du nerf vague à la sortie du tronc cérébral.
 </t>
         </is>
       </c>
